--- a/data_description.xlsx
+++ b/data_description.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Baseline</t>
   </si>
@@ -46,6 +46,27 @@
   <si>
     <t>White: 38580 (92.4%)
 Non-white: 3178 (7.6%)</t>
+  </si>
+  <si>
+    <t>eid</t>
+  </si>
+  <si>
+    <t>age_0</t>
+  </si>
+  <si>
+    <t>age_1</t>
+  </si>
+  <si>
+    <t>gmv_0</t>
+  </si>
+  <si>
+    <t>gmv_1</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>ethnicty</t>
   </si>
 </sst>
 </file>
@@ -53,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,6 +109,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -103,6 +132,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -110,99 +185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,14 +202,50 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,187 +254,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +518,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -488,17 +542,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,21 +558,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,27 +578,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,147 +600,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,7 +787,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,18 +1115,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.2833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.975" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.68333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.06666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73333333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:3">
@@ -1118,7 +1166,7 @@
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:3">
       <c r="A5" s="2" t="s">
@@ -1127,7 +1175,110 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>1000160</v>
+      </c>
+      <c r="B10" s="8">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8">
+        <v>785126</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>1000448</v>
+      </c>
+      <c r="B11" s="8">
+        <v>68</v>
+      </c>
+      <c r="C11" s="8">
+        <v>70</v>
+      </c>
+      <c r="D11" s="8">
+        <v>752631</v>
+      </c>
+      <c r="E11" s="8">
+        <v>788870</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>1000816</v>
+      </c>
+      <c r="B12" s="8">
+        <v>71</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8">
+        <v>780962</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>1000827</v>
+      </c>
+      <c r="B13" s="8">
+        <v>69</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8">
+        <v>765664</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/data_description.xlsx
+++ b/data_description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14280" windowHeight="12360"/>
+    <workbookView windowWidth="28620" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Baseline</t>
   </si>
@@ -67,17 +67,37 @@
   </si>
   <si>
     <t>ethnicty</t>
+  </si>
+  <si>
+    <t>Ten-Fold Cross-Validation</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>RMSE of GMV</t>
+  </si>
+  <si>
+    <t>RRMSE of GMV</t>
+  </si>
+  <si>
+    <t>RMSE of Age</t>
+  </si>
+  <si>
+    <t>RRMSE of Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -111,16 +131,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +145,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -140,59 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -201,8 +183,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -210,36 +236,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,21 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -542,22 +547,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,16 +593,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,17 +627,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,142 +640,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +814,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,21 +1141,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.15" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.975" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.68333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.06666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73333333333333" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.775" style="1" customWidth="1"/>
+    <col min="7" max="11" width="10.375" style="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:3">
@@ -1280,11 +1307,176 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>15614.961</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16331.655</v>
+      </c>
+      <c r="C20" s="1">
+        <v>14914.652</v>
+      </c>
+      <c r="D20" s="10">
+        <v>14727.12</v>
+      </c>
+      <c r="E20" s="10">
+        <v>15671.48</v>
+      </c>
+      <c r="F20" s="1">
+        <v>14424.898</v>
+      </c>
+      <c r="G20" s="1">
+        <v>14548.133</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20723.574</v>
+      </c>
+      <c r="I20" s="1">
+        <v>14818.642</v>
+      </c>
+      <c r="J20" s="1">
+        <v>14366.995</v>
+      </c>
+      <c r="K20" s="1">
+        <v>15622.463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11">
+        <v>0.00094</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>1.135</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.223</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.131</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.185</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.082</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.146</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.164</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.128</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.115</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.043</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="11">
+        <v>0.00079</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A25:K25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data_description.xlsx
+++ b/data_description.xlsx
@@ -95,11 +95,11 @@
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -129,8 +189,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -146,7 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,114 +271,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,19 +299,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,25 +443,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,138 +497,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -538,26 +563,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,16 +632,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -621,8 +661,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,8 +670,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,152 +680,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,10 +856,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1307,166 +1371,218 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="16" ht="15.75"/>
+    <row r="17" ht="20" customHeight="1" spans="1:11">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:11">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="13">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="13">
         <v>4</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="13">
         <v>5</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="13">
         <v>6</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="13">
         <v>7</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="13">
         <v>8</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="13">
         <v>9</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="19" ht="17" customHeight="1" spans="1:11">
+      <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:11">
+      <c r="A20" s="16">
         <v>15614.961</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="16">
         <v>16331.655</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="16">
         <v>14914.652</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="17">
         <v>14727.12</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="17">
         <v>15671.48</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="16">
         <v>14424.898</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="16">
         <v>14548.133</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="16">
         <v>20723.574</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="16">
         <v>14818.642</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="16">
         <v>14366.995</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="16">
         <v>15622.463</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="21" ht="20" customHeight="1" spans="1:11">
+      <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="11">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" ht="22" customHeight="1" spans="1:11">
+      <c r="A22" s="19">
         <v>0.00094</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:11">
+      <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:11">
+      <c r="A24" s="16">
         <v>1.135</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="16">
         <v>1.223</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="16">
         <v>1.131</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="16">
         <v>1.185</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="16">
         <v>1.082</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="16">
         <v>1.146</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="16">
         <v>1.164</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="16">
         <v>1.128</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="16">
         <v>1.115</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="16">
         <v>1.043</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="17">
         <v>1.13</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+    <row r="25" ht="16.5" spans="1:11">
+      <c r="A25" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="11">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="1:11">
+      <c r="A26" s="19">
         <v>0.00079</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" ht="15.75"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A2:C2"/>

--- a/data_description.xlsx
+++ b/data_description.xlsx
@@ -92,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000%"/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -128,8 +128,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,98 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -250,6 +159,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -259,7 +183,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,13 +317,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,169 +449,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,17 +578,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,16 +650,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -657,175 +675,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,16 +874,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1211,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1387,7 +1390,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" ht="15.75" spans="1:11">
+    <row r="18" ht="16.5" spans="1:11">
       <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
@@ -1441,34 +1444,34 @@
       <c r="A20" s="16">
         <v>15614.961</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="17">
         <v>16331.655</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="17">
         <v>14914.652</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="18">
         <v>14727.12</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="18">
         <v>15671.48</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="17">
         <v>14424.898</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="17">
         <v>14548.133</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="17">
         <v>20723.574</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="17">
         <v>14818.642</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="17">
         <v>14366.995</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="17">
         <v>15622.463</v>
       </c>
     </row>
@@ -1476,111 +1479,151 @@
       <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:11">
       <c r="A22" s="19">
+        <v>0.00098</v>
+      </c>
+      <c r="B22" s="20">
+        <v>0.00098</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0.00134</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.00089</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.00138</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.00087</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0.00087</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0.00079</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0.00089</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0.00086</v>
+      </c>
+      <c r="K22" s="20">
         <v>0.00094</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:11">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:11">
       <c r="A24" s="16">
         <v>1.135</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="17">
         <v>1.223</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="17">
         <v>1.131</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="17">
         <v>1.185</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="17">
         <v>1.082</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="17">
         <v>1.146</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="17">
         <v>1.164</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="17">
         <v>1.128</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="17">
         <v>1.115</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="17">
         <v>1.043</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="18">
         <v>1.13</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:11">
+    <row r="25" spans="1:11">
       <c r="A25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:11">
       <c r="A26" s="19">
         <v>0.00079</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="B26" s="20">
+        <v>0.00085</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0.00081</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.00084</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0.00077</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0.00079</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0.0008</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.00079</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0.00077</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0.00072</v>
+      </c>
+      <c r="K26" s="20">
+        <v>0.00077</v>
+      </c>
     </row>
     <row r="27" ht="15.75"/>
   </sheetData>

--- a/data_description.xlsx
+++ b/data_description.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Baseline</t>
   </si>
@@ -85,21 +85,133 @@
   </si>
   <si>
     <t>RRMSE of Age</t>
+  </si>
+  <si>
+    <t>Likelihood Ratio Test</t>
+  </si>
+  <si>
+    <t>Model A is nested model of Model B</t>
+  </si>
+  <si>
+    <t>Model C is nested model of Model B</t>
+  </si>
+  <si>
+    <r>
+      <t>Null Hypothesis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: A and B fit the data equally well. Thus choose model A.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Null Hypothesis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: C and B fit the data equally well. Thus choose model A.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alternate Hypothesis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: B fits the data significantly better than A. Thus choose model B.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alternate Hypothesis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: B fits the data significantly better than C. Thus choose model B.</t>
+    </r>
+  </si>
+  <si>
+    <t>Model A</t>
+  </si>
+  <si>
+    <t>Model B</t>
+  </si>
+  <si>
+    <t>LR-statistic</t>
+  </si>
+  <si>
+    <t>Model C</t>
+  </si>
+  <si>
+    <t>Log-likelihood</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Reject null hypothesis</t>
+  </si>
+  <si>
+    <t>Succeed to reject null hypothesis.
+Choose Model B</t>
+  </si>
+  <si>
+    <t>AIC &amp; BIC Comparison</t>
+  </si>
+  <si>
+    <t>full - nested ( B - A)</t>
+  </si>
+  <si>
+    <t>full - nested ( B - C)</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Model B is better.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000%"/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +238,43 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -137,7 +286,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -146,6 +295,89 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,119 +392,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,37 +443,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +575,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,127 +611,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,15 +749,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -650,6 +785,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -667,11 +813,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,152 +824,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,14 +1024,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -942,6 +1122,12 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00C9091E"/>
+      <color rgb="00FFFE9B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1208,21 +1394,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.975" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.775" style="1" customWidth="1"/>
-    <col min="7" max="11" width="10.375" style="1"/>
+    <col min="1" max="1" width="15.6166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.0166666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1916666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.775" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1"/>
+    <col min="10" max="11" width="10.375" style="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1525,7 +1714,7 @@
         <v>0.00094</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" ht="16.5" spans="1:11">
       <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1764,7 @@
         <v>1.13</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" ht="16.5" spans="1:11">
       <c r="A25" s="14" t="s">
         <v>22</v>
       </c>
@@ -1626,8 +1815,252 @@
       </c>
     </row>
     <row r="27" ht="15.75"/>
+    <row r="29" ht="15.75"/>
+    <row r="30" ht="21" customHeight="1" spans="1:8">
+      <c r="A30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" ht="21" customHeight="1" spans="1:8">
+      <c r="A31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" ht="34" customHeight="1" spans="1:8">
+      <c r="A32" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" ht="32" customHeight="1" spans="1:8">
+      <c r="A33" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="1:8">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" ht="18" customHeight="1" spans="1:8">
+      <c r="A35" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="27">
+        <v>-947937.196</v>
+      </c>
+      <c r="C35" s="27">
+        <v>-946821.794</v>
+      </c>
+      <c r="D35" s="27">
+        <v>2230.803</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="27">
+        <v>-946827.632</v>
+      </c>
+      <c r="G35" s="27">
+        <v>-946821.794</v>
+      </c>
+      <c r="H35" s="27">
+        <v>11.674</v>
+      </c>
+    </row>
+    <row r="36" ht="19" customHeight="1" spans="1:8">
+      <c r="A36" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="28">
+        <v>0</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0.0006</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" ht="33" customHeight="1" spans="1:8">
+      <c r="A37" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" spans="1:8">
+      <c r="A38" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:8">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:8">
+      <c r="A40" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="27">
+        <v>1895892.392</v>
+      </c>
+      <c r="C40" s="27">
+        <v>1893665.589</v>
+      </c>
+      <c r="D40" s="27">
+        <v>-2226.803</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="27">
+        <v>1893675.264</v>
+      </c>
+      <c r="G40" s="27">
+        <v>1893665.589</v>
+      </c>
+      <c r="H40" s="27">
+        <v>-9.675</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:8">
+      <c r="A41" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="27">
+        <v>1895976.387</v>
+      </c>
+      <c r="C41" s="31">
+        <v>1893768.25</v>
+      </c>
+      <c r="D41" s="27">
+        <v>-2208.138</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="27">
+        <v>1893768.592</v>
+      </c>
+      <c r="G41" s="31">
+        <v>1893768.25</v>
+      </c>
+      <c r="H41" s="27">
+        <v>-0.342</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:8">
+      <c r="A42" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" ht="15.75"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="22">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -1636,6 +2069,20 @@
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:H42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
